--- a/data/neut_plate_reader_data/HC070041.xlsx
+++ b/data/neut_plate_reader_data/HC070041.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/fh/fast/bloom_j/computational_notebooks/reguia/2020/validation/data/neut_plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05590DE-07BE-4C48-8FF8-FC00D2860260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="4040" yWindow="1620" windowWidth="19000" windowHeight="13600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F193D" sheetId="5" r:id="rId1"/>
     <sheet name="K189D" sheetId="4" r:id="rId2"/>
     <sheet name="F193F" sheetId="3" r:id="rId3"/>
     <sheet name="WT" sheetId="2" r:id="rId4"/>
+    <sheet name="F159G" sheetId="6" r:id="rId5"/>
+    <sheet name="WT2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -30,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -84,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -108,12 +116,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -175,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +191,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -199,12 +207,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -266,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +282,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -290,12 +298,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eguia, Rachel T</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +311,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -357,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +373,189 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -381,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="67">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -558,12 +748,36 @@
   </si>
   <si>
     <t>3/21/2020 12:23:25 PM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:28:11 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 22.6 °C</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:27:15 AM</t>
+  </si>
+  <si>
+    <t>9:26:12 AM</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:25:55 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 22.5 °C</t>
+  </si>
+  <si>
+    <t>5/2/2020 9:24:59 AM</t>
+  </si>
+  <si>
+    <t>9:23:58 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,10 +805,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,60 +859,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -727,23 +887,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -792,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,9 +988,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,6 +1040,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1035,14 +1232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1271,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1279,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1098,7 +1295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1106,17 +1303,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1124,12 +1321,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1151,7 +1348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1173,7 +1370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1184,7 +1381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1206,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1217,7 +1414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1228,7 +1425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1247,12 +1444,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1293,7 +1490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1334,7 +1531,7 @@
         <v>7689</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1375,7 +1572,7 @@
         <v>10345</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1416,7 +1613,7 @@
         <v>30928</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1457,7 +1654,7 @@
         <v>11438</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1498,7 +1695,7 @@
         <v>11551</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1539,7 +1736,7 @@
         <v>11479</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1777,7 @@
         <v>31003</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1621,7 +1818,7 @@
         <v>7291</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1636,14 +1833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1675,7 +1872,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1683,7 +1880,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1699,7 +1896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1707,17 +1904,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1725,12 +1922,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1741,7 +1938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1752,7 +1949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1763,7 +1960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1774,7 +1971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1807,7 +2004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1818,7 +2015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1829,7 +2026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1840,7 +2037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1848,12 +2045,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1894,7 +2091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1935,7 +2132,7 @@
         <v>10714</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1976,7 +2173,7 @@
         <v>13847</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2017,7 +2214,7 @@
         <v>35853</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2058,7 +2255,7 @@
         <v>15469</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2099,7 +2296,7 @@
         <v>15621</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2140,7 +2337,7 @@
         <v>15636</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2181,7 +2378,7 @@
         <v>34461</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2222,7 +2419,7 @@
         <v>10252</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2237,14 +2434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2260,7 +2457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2268,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2473,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2284,7 +2481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2300,7 +2497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2308,17 +2505,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2326,12 +2523,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2353,7 +2550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2364,7 +2561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2375,7 +2572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2397,7 +2594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2408,7 +2605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2419,7 +2616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2430,7 +2627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2441,7 +2638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2449,12 +2646,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2495,7 +2692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2536,7 +2733,7 @@
         <v>10656</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2577,7 +2774,7 @@
         <v>14361</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2618,7 +2815,7 @@
         <v>34241</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2659,7 +2856,7 @@
         <v>15476</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2700,7 +2897,7 @@
         <v>15738</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -2741,7 +2938,7 @@
         <v>15386</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -2782,7 +2979,7 @@
         <v>30950</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -2823,7 +3020,7 @@
         <v>10208</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2838,14 +3035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2861,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +3066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2877,7 +3074,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2893,7 +3090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2901,7 +3098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2909,17 +3106,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2927,12 +3124,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2943,7 +3140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2954,7 +3151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2965,7 +3162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2976,7 +3173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2987,7 +3184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2998,7 +3195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3009,7 +3206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3020,7 +3217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3031,7 +3228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3042,7 +3239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3050,12 +3247,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3096,7 +3293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3137,7 +3334,7 @@
         <v>13125</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3178,7 +3375,7 @@
         <v>16520</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -3219,7 +3416,7 @@
         <v>34081</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3260,7 +3457,7 @@
         <v>18688</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3301,7 +3498,7 @@
         <v>17968</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3342,7 +3539,7 @@
         <v>18113</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -3383,7 +3580,7 @@
         <v>32405</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3424,12 +3621,1218 @@
         <v>12049</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1900E782-B58C-1F47-9EF5-7BE518D5FB4F}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>5439</v>
+      </c>
+      <c r="C32">
+        <v>5512</v>
+      </c>
+      <c r="D32">
+        <v>5532</v>
+      </c>
+      <c r="E32">
+        <v>5565</v>
+      </c>
+      <c r="F32">
+        <v>5569</v>
+      </c>
+      <c r="G32">
+        <v>5618</v>
+      </c>
+      <c r="H32">
+        <v>5603</v>
+      </c>
+      <c r="I32">
+        <v>5617</v>
+      </c>
+      <c r="J32">
+        <v>5579</v>
+      </c>
+      <c r="K32">
+        <v>5507</v>
+      </c>
+      <c r="L32">
+        <v>5472</v>
+      </c>
+      <c r="M32">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>7893</v>
+      </c>
+      <c r="C33">
+        <v>7735</v>
+      </c>
+      <c r="D33">
+        <v>7814</v>
+      </c>
+      <c r="E33">
+        <v>7917</v>
+      </c>
+      <c r="F33">
+        <v>8017</v>
+      </c>
+      <c r="G33">
+        <v>7940</v>
+      </c>
+      <c r="H33">
+        <v>7989</v>
+      </c>
+      <c r="I33">
+        <v>8044</v>
+      </c>
+      <c r="J33">
+        <v>7850</v>
+      </c>
+      <c r="K33">
+        <v>7933</v>
+      </c>
+      <c r="L33">
+        <v>7823</v>
+      </c>
+      <c r="M33">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>29834</v>
+      </c>
+      <c r="C34">
+        <v>34072</v>
+      </c>
+      <c r="D34">
+        <v>32921</v>
+      </c>
+      <c r="E34">
+        <v>30786</v>
+      </c>
+      <c r="F34">
+        <v>31340</v>
+      </c>
+      <c r="G34">
+        <v>31874</v>
+      </c>
+      <c r="H34">
+        <v>32688</v>
+      </c>
+      <c r="I34">
+        <v>32709</v>
+      </c>
+      <c r="J34">
+        <v>31729</v>
+      </c>
+      <c r="K34">
+        <v>32486</v>
+      </c>
+      <c r="L34">
+        <v>33208</v>
+      </c>
+      <c r="M34">
+        <v>30723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>33579</v>
+      </c>
+      <c r="C35">
+        <v>34000</v>
+      </c>
+      <c r="D35">
+        <v>32093</v>
+      </c>
+      <c r="E35">
+        <v>33654</v>
+      </c>
+      <c r="F35">
+        <v>31400</v>
+      </c>
+      <c r="G35">
+        <v>29850</v>
+      </c>
+      <c r="H35">
+        <v>25602</v>
+      </c>
+      <c r="I35">
+        <v>16863</v>
+      </c>
+      <c r="J35">
+        <v>9042</v>
+      </c>
+      <c r="K35">
+        <v>7628</v>
+      </c>
+      <c r="L35">
+        <v>7719</v>
+      </c>
+      <c r="M35">
+        <v>8453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>30936</v>
+      </c>
+      <c r="C36">
+        <v>31947</v>
+      </c>
+      <c r="D36">
+        <v>32245</v>
+      </c>
+      <c r="E36">
+        <v>31961</v>
+      </c>
+      <c r="F36">
+        <v>31811</v>
+      </c>
+      <c r="G36">
+        <v>30303</v>
+      </c>
+      <c r="H36">
+        <v>24574</v>
+      </c>
+      <c r="I36">
+        <v>16632</v>
+      </c>
+      <c r="J36">
+        <v>8987</v>
+      </c>
+      <c r="K36">
+        <v>7566</v>
+      </c>
+      <c r="L36">
+        <v>7648</v>
+      </c>
+      <c r="M36">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>28245</v>
+      </c>
+      <c r="C37">
+        <v>30889</v>
+      </c>
+      <c r="D37">
+        <v>31294</v>
+      </c>
+      <c r="E37">
+        <v>30926</v>
+      </c>
+      <c r="F37">
+        <v>28872</v>
+      </c>
+      <c r="G37">
+        <v>27160</v>
+      </c>
+      <c r="H37">
+        <v>22279</v>
+      </c>
+      <c r="I37">
+        <v>15800</v>
+      </c>
+      <c r="J37">
+        <v>8777</v>
+      </c>
+      <c r="K37">
+        <v>7520</v>
+      </c>
+      <c r="L37">
+        <v>7789</v>
+      </c>
+      <c r="M37">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>27409</v>
+      </c>
+      <c r="C38">
+        <v>27543</v>
+      </c>
+      <c r="D38">
+        <v>27003</v>
+      </c>
+      <c r="E38">
+        <v>26559</v>
+      </c>
+      <c r="F38">
+        <v>28337</v>
+      </c>
+      <c r="G38">
+        <v>29752</v>
+      </c>
+      <c r="H38">
+        <v>28917</v>
+      </c>
+      <c r="I38">
+        <v>28578</v>
+      </c>
+      <c r="J38">
+        <v>26990</v>
+      </c>
+      <c r="K38">
+        <v>25410</v>
+      </c>
+      <c r="L38">
+        <v>25428</v>
+      </c>
+      <c r="M38">
+        <v>21395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>4997</v>
+      </c>
+      <c r="C39">
+        <v>5114</v>
+      </c>
+      <c r="D39">
+        <v>5149</v>
+      </c>
+      <c r="E39">
+        <v>5154</v>
+      </c>
+      <c r="F39">
+        <v>5197</v>
+      </c>
+      <c r="G39">
+        <v>5236</v>
+      </c>
+      <c r="H39">
+        <v>5245</v>
+      </c>
+      <c r="I39">
+        <v>5216</v>
+      </c>
+      <c r="J39">
+        <v>5254</v>
+      </c>
+      <c r="K39">
+        <v>5116</v>
+      </c>
+      <c r="L39">
+        <v>5078</v>
+      </c>
+      <c r="M39">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F318F0AB-68CE-CD49-944A-283BFBAB4FAF}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>14966</v>
+      </c>
+      <c r="C32">
+        <v>14965</v>
+      </c>
+      <c r="D32">
+        <v>15303</v>
+      </c>
+      <c r="E32">
+        <v>15407</v>
+      </c>
+      <c r="F32">
+        <v>15587</v>
+      </c>
+      <c r="G32">
+        <v>16342</v>
+      </c>
+      <c r="H32">
+        <v>15781</v>
+      </c>
+      <c r="I32">
+        <v>15617</v>
+      </c>
+      <c r="J32">
+        <v>15516</v>
+      </c>
+      <c r="K32">
+        <v>15814</v>
+      </c>
+      <c r="L32">
+        <v>15375</v>
+      </c>
+      <c r="M32">
+        <v>15024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>18498</v>
+      </c>
+      <c r="C33">
+        <v>18684</v>
+      </c>
+      <c r="D33">
+        <v>18777</v>
+      </c>
+      <c r="E33">
+        <v>18783</v>
+      </c>
+      <c r="F33">
+        <v>19205</v>
+      </c>
+      <c r="G33">
+        <v>19226</v>
+      </c>
+      <c r="H33">
+        <v>19200</v>
+      </c>
+      <c r="I33">
+        <v>19197</v>
+      </c>
+      <c r="J33">
+        <v>19046</v>
+      </c>
+      <c r="K33">
+        <v>18987</v>
+      </c>
+      <c r="L33">
+        <v>18860</v>
+      </c>
+      <c r="M33">
+        <v>19262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>35004</v>
+      </c>
+      <c r="C34">
+        <v>35804</v>
+      </c>
+      <c r="D34">
+        <v>35906</v>
+      </c>
+      <c r="E34">
+        <v>36562</v>
+      </c>
+      <c r="F34">
+        <v>37749</v>
+      </c>
+      <c r="G34">
+        <v>36888</v>
+      </c>
+      <c r="H34">
+        <v>37346</v>
+      </c>
+      <c r="I34">
+        <v>36895</v>
+      </c>
+      <c r="J34">
+        <v>36937</v>
+      </c>
+      <c r="K34">
+        <v>37867</v>
+      </c>
+      <c r="L34">
+        <v>35464</v>
+      </c>
+      <c r="M34">
+        <v>36756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>34844</v>
+      </c>
+      <c r="C35">
+        <v>35732</v>
+      </c>
+      <c r="D35">
+        <v>35700</v>
+      </c>
+      <c r="E35">
+        <v>35830</v>
+      </c>
+      <c r="F35">
+        <v>34037</v>
+      </c>
+      <c r="G35">
+        <v>32461</v>
+      </c>
+      <c r="H35">
+        <v>25470</v>
+      </c>
+      <c r="I35">
+        <v>19317</v>
+      </c>
+      <c r="J35">
+        <v>18650</v>
+      </c>
+      <c r="K35">
+        <v>19120</v>
+      </c>
+      <c r="L35">
+        <v>19409</v>
+      </c>
+      <c r="M35">
+        <v>21326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>35225</v>
+      </c>
+      <c r="C36">
+        <v>36001</v>
+      </c>
+      <c r="D36">
+        <v>35687</v>
+      </c>
+      <c r="E36">
+        <v>36119</v>
+      </c>
+      <c r="F36">
+        <v>34349</v>
+      </c>
+      <c r="G36">
+        <v>30915</v>
+      </c>
+      <c r="H36">
+        <v>24396</v>
+      </c>
+      <c r="I36">
+        <v>19065</v>
+      </c>
+      <c r="J36">
+        <v>18488</v>
+      </c>
+      <c r="K36">
+        <v>18786</v>
+      </c>
+      <c r="L36">
+        <v>19277</v>
+      </c>
+      <c r="M36">
+        <v>21317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>34453</v>
+      </c>
+      <c r="C37">
+        <v>34950</v>
+      </c>
+      <c r="D37">
+        <v>35873</v>
+      </c>
+      <c r="E37">
+        <v>33634</v>
+      </c>
+      <c r="F37">
+        <v>33327</v>
+      </c>
+      <c r="G37">
+        <v>30663</v>
+      </c>
+      <c r="H37">
+        <v>25279</v>
+      </c>
+      <c r="I37">
+        <v>18791</v>
+      </c>
+      <c r="J37">
+        <v>18377</v>
+      </c>
+      <c r="K37">
+        <v>18381</v>
+      </c>
+      <c r="L37">
+        <v>19801</v>
+      </c>
+      <c r="M37">
+        <v>20976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>32802</v>
+      </c>
+      <c r="C38">
+        <v>34041</v>
+      </c>
+      <c r="D38">
+        <v>35501</v>
+      </c>
+      <c r="E38">
+        <v>34533</v>
+      </c>
+      <c r="F38">
+        <v>35093</v>
+      </c>
+      <c r="G38">
+        <v>35552</v>
+      </c>
+      <c r="H38">
+        <v>35742</v>
+      </c>
+      <c r="I38">
+        <v>35795</v>
+      </c>
+      <c r="J38">
+        <v>35094</v>
+      </c>
+      <c r="K38">
+        <v>34141</v>
+      </c>
+      <c r="L38">
+        <v>36010</v>
+      </c>
+      <c r="M38">
+        <v>33925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>13634</v>
+      </c>
+      <c r="C39">
+        <v>13866</v>
+      </c>
+      <c r="D39">
+        <v>14053</v>
+      </c>
+      <c r="E39">
+        <v>14180</v>
+      </c>
+      <c r="F39">
+        <v>14229</v>
+      </c>
+      <c r="G39">
+        <v>14444</v>
+      </c>
+      <c r="H39">
+        <v>14575</v>
+      </c>
+      <c r="I39">
+        <v>14216</v>
+      </c>
+      <c r="J39">
+        <v>14536</v>
+      </c>
+      <c r="K39">
+        <v>14308</v>
+      </c>
+      <c r="L39">
+        <v>14203</v>
+      </c>
+      <c r="M39">
+        <v>14275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
